--- a/Chem/Potentiometric_titration.xlsx
+++ b/Chem/Potentiometric_titration.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghoc\Desktop\GitHub\ntucs\Chem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C0A4EFA3-55BE-487C-A641-A5899BFF061B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4D74757A-C875-4FF5-9AD4-731260CF790C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Potentiometric_titration" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -831,7 +831,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>3.15</c:v>
+                  <c:v>3.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.71</c:v>
@@ -2067,11 +2067,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AE29" sqref="AE29"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
